--- a/protobuff/backup/PeakArena/PeakArena.xlsx
+++ b/protobuff/backup/PeakArena/PeakArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="1480" windowWidth="22260" windowHeight="16760" activeTab="2"/>
+    <workbookView xWindow="45580" yWindow="600" windowWidth="22260" windowHeight="16760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaScore" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="335">
   <si>
     <t>关键字段</t>
   </si>
@@ -1054,6 +1054,10 @@
   </si>
   <si>
     <t>RefEnum(cs:eSpecialItemId,java:com.rwbase.common.enu.eSpecialItemId)</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4019,7 +4023,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4027,7 +4031,7 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4059,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
         <v>318</v>

--- a/protobuff/backup/PeakArena/PeakArena.xlsx
+++ b/protobuff/backup/PeakArena/PeakArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45580" yWindow="600" windowWidth="22260" windowHeight="16760" activeTab="2"/>
+    <workbookView xWindow="5520" yWindow="0" windowWidth="22260" windowHeight="16760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaScore" sheetId="5" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,6 +1243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1462,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -4023,7 +4033,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4036,303 +4046,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>50</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>50</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>50</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>80</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>100</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>332</v>
       </c>
     </row>

--- a/protobuff/backup/PeakArena/PeakArena.xlsx
+++ b/protobuff/backup/PeakArena/PeakArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="43180" yWindow="500" windowWidth="22660" windowHeight="14640" activeTab="3"/>
+    <workbookView xWindow="43180" yWindow="500" windowWidth="22660" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaInfo" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>关键字段</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>排名分段</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1056,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1186,7 +1190,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1222,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1464,7 +1468,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1497,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1737,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/protobuff/backup/PeakArena/PeakArena.xlsx
+++ b/protobuff/backup/PeakArena/PeakArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="43180" yWindow="500" windowWidth="22660" windowHeight="14640"/>
+    <workbookView xWindow="2600" yWindow="0" windowWidth="29140" windowHeight="17520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaInfo" sheetId="5" r:id="rId1"/>
@@ -118,14 +118,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>resetCost</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyTimeCost</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -251,6 +243,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1073,19 +1073,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1096,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1113,18 +1113,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1144,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1209,13 +1209,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1226,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1243,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1280,7 +1280,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1308,7 +1308,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1336,7 +1336,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1350,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1364,7 +1364,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1378,7 +1378,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1392,7 +1392,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1406,7 +1406,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1414,13 +1414,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1428,13 +1428,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1442,13 +1442,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1484,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1611,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1625,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1639,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1667,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1689,13 +1689,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1703,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1717,13 +1717,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1749,16 +1749,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1783,15 +1783,15 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -1822,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>30</v>

--- a/protobuff/backup/PeakArena/PeakArena.xlsx
+++ b/protobuff/backup/PeakArena/PeakArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="0" windowWidth="29140" windowHeight="17520" activeTab="1"/>
+    <workbookView xWindow="6080" yWindow="1680" windowWidth="29140" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaInfo" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>关键字段</t>
   </si>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefEnum(cs:eSpecialItemId,java:com.rwbase.common.enu.eSpecialItemId)</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1189,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1472,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1507,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/protobuff/backup/PeakArena/PeakArena.xlsx
+++ b/protobuff/backup/PeakArena/PeakArena.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="1680" windowWidth="29140" windowHeight="17520"/>
+    <workbookView xWindow="2600" yWindow="0" windowWidth="29140" windowHeight="17520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="peakArenaInfo" sheetId="5" r:id="rId1"/>
     <sheet name="peakArenaResetCost" sheetId="8" r:id="rId2"/>
     <sheet name="peakArenaBuyCost" sheetId="9" r:id="rId3"/>
     <sheet name="peakArenaPrize" sheetId="10" r:id="rId4"/>
+    <sheet name="peakArenaMatchRule" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="arenaCost" localSheetId="2">peakArenaBuyCost!$A$5:$D$17</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>关键字段</t>
   </si>
@@ -254,7 +255,75 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>RefEnum(cs:eSpecialItemId,java:com.rwbase.common.enu.eSpecialItemId)</t>
+    <t>int</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~9</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~999</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>99~90</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>89~70</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>69~50</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-9名</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +649,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +699,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,7 +775,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -702,12 +789,18 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="8" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="9" builtinId="22" customBuiltin="1"/>
@@ -1064,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1094,7 +1187,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1194,12 +1287,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
@@ -1224,7 +1317,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1472,7 +1565,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1499,7 +1592,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1511,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1746,7 +1839,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1767,7 +1860,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1835,6 +1928,169 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
